--- a/myThesis/Viscosity/solutionsNrheology.xlsx
+++ b/myThesis/Viscosity/solutionsNrheology.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oskat\OneDrive - Instituto Tecnologico y de Estudios Superiores de Monterrey\Documents\MNT_ITESM_Thesis\Viscosity\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tecmx-my.sharepoint.com/personal/a01212611_itesm_mx/Documents/Documents/MNT_ITESM_Thesis/myThesis/Viscosity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D626A88-E60B-4836-9C18-BC6309A00756}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{5D626A88-E60B-4836-9C18-BC6309A00756}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6CB6D6E8-6379-4666-94F6-95E84C8D1F50}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B7136CE4-8007-46B5-82B9-4587FFE551E7}"/>
+    <workbookView xWindow="645" yWindow="495" windowWidth="17970" windowHeight="14265" activeTab="1" xr2:uid="{B7136CE4-8007-46B5-82B9-4587FFE551E7}"/>
   </bookViews>
   <sheets>
     <sheet name="rheology" sheetId="2" r:id="rId1"/>
@@ -592,7 +592,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -696,24 +696,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -755,6 +737,37 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1206,8 +1219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52CE191C-5F93-480D-978C-2A064FA643C9}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1525,33 +1538,33 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:9" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="93" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="95">
         <v>1.2450000000000001</v>
       </c>
-      <c r="E13" s="6" t="str">
+      <c r="E13" s="94" t="str">
         <f>"@20°C"</f>
         <v>@20°C</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="96">
         <v>15000</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="94">
         <v>3</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="97" t="s">
         <v>40</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="I13" s="97" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1675,32 +1688,32 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+    <row r="18" spans="1:9" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="94" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="98" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="94" t="s">
         <v>62</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="95">
         <v>0.4</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="11" t="s">
+      <c r="H18" s="97" t="s">
         <v>63</v>
       </c>
-      <c r="I18" s="11" t="s">
+      <c r="I18" s="97" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1749,7 +1762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{369913E4-9BA3-456A-A7BC-B2736832302E}">
   <dimension ref="A1:L138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:H18"/>
     </sheetView>
   </sheetViews>
@@ -1769,51 +1782,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="13" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="69"/>
-      <c r="C1" s="70">
+      <c r="B1" s="63"/>
+      <c r="C1" s="64">
         <v>2000</v>
       </c>
-      <c r="D1" s="70" t="s">
+      <c r="D1" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="71"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="65"/>
       <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="72"/>
-      <c r="C2" s="73">
+      <c r="B2" s="66"/>
+      <c r="C2" s="67">
         <v>3000</v>
       </c>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="74"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="68"/>
     </row>
     <row r="3" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="91" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="76" t="s">
+      <c r="B3" s="69"/>
+      <c r="C3" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="77" t="s">
+      <c r="D3" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="E3" s="77" t="s">
+      <c r="E3" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="F3" s="77" t="s">
+      <c r="F3" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="G3" s="77" t="s">
+      <c r="G3" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="H3" s="78"/>
+      <c r="H3" s="72"/>
       <c r="I3" s="27"/>
       <c r="J3" s="5" t="s">
         <v>99</v>
@@ -1826,28 +1839,28 @@
       </c>
     </row>
     <row r="4" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="63"/>
-      <c r="B4" s="75" t="str">
+      <c r="A4" s="91"/>
+      <c r="B4" s="69" t="str">
         <f>"000"</f>
         <v>000</v>
       </c>
-      <c r="C4" s="79">
+      <c r="C4" s="73">
         <v>0</v>
       </c>
-      <c r="D4" s="80">
+      <c r="D4" s="74">
         <v>2246</v>
       </c>
-      <c r="E4" s="80">
+      <c r="E4" s="74">
         <f>D4/$D$10</f>
         <v>2000</v>
       </c>
-      <c r="F4" s="81">
+      <c r="F4" s="75">
         <v>0</v>
       </c>
-      <c r="G4" s="81">
+      <c r="G4" s="75">
         <v>11.28</v>
       </c>
-      <c r="H4" s="82"/>
+      <c r="H4" s="76"/>
       <c r="I4" s="28"/>
       <c r="J4" s="51">
         <v>1.7899999999999999E-4</v>
@@ -1860,28 +1873,28 @@
       </c>
     </row>
     <row r="5" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="63"/>
-      <c r="B5" s="75" t="str">
+      <c r="A5" s="91"/>
+      <c r="B5" s="69" t="str">
         <f>"025"</f>
         <v>025</v>
       </c>
-      <c r="C5" s="79">
+      <c r="C5" s="73">
         <v>0.25</v>
       </c>
-      <c r="D5" s="80">
+      <c r="D5" s="74">
         <v>2246</v>
       </c>
-      <c r="E5" s="80">
+      <c r="E5" s="74">
         <f t="shared" ref="E5:E8" si="0">D5/$D$10</f>
         <v>2000</v>
       </c>
-      <c r="F5" s="81">
+      <c r="F5" s="75">
         <v>5.65</v>
       </c>
-      <c r="G5" s="81">
+      <c r="G5" s="75">
         <v>11.32</v>
       </c>
-      <c r="H5" s="82"/>
+      <c r="H5" s="76"/>
       <c r="I5" s="28"/>
       <c r="J5" s="51">
         <v>6.1300000000000005E-4</v>
@@ -1894,28 +1907,28 @@
       </c>
     </row>
     <row r="6" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="63"/>
-      <c r="B6" s="75" t="str">
+      <c r="A6" s="91"/>
+      <c r="B6" s="69" t="str">
         <f>"050"</f>
         <v>050</v>
       </c>
-      <c r="C6" s="79">
+      <c r="C6" s="73">
         <v>0.5</v>
       </c>
-      <c r="D6" s="80">
+      <c r="D6" s="74">
         <v>2246</v>
       </c>
-      <c r="E6" s="80">
+      <c r="E6" s="74">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="F6" s="81">
+      <c r="F6" s="75">
         <v>11.34</v>
       </c>
-      <c r="G6" s="81">
+      <c r="G6" s="75">
         <v>11.34</v>
       </c>
-      <c r="H6" s="82"/>
+      <c r="H6" s="76"/>
       <c r="I6" s="28"/>
       <c r="J6" s="51">
         <v>1.6898E-2</v>
@@ -1928,28 +1941,28 @@
       </c>
     </row>
     <row r="7" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="63"/>
-      <c r="B7" s="75" t="str">
+      <c r="A7" s="91"/>
+      <c r="B7" s="69" t="str">
         <f>"075"</f>
         <v>075</v>
       </c>
-      <c r="C7" s="79">
+      <c r="C7" s="73">
         <v>0.75</v>
       </c>
-      <c r="D7" s="80">
+      <c r="D7" s="74">
         <v>2246</v>
       </c>
-      <c r="E7" s="80">
+      <c r="E7" s="74">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="F7" s="81">
+      <c r="F7" s="75">
         <v>17.059999999999999</v>
       </c>
-      <c r="G7" s="81">
+      <c r="G7" s="75">
         <v>11.37</v>
       </c>
-      <c r="H7" s="82"/>
+      <c r="H7" s="76"/>
       <c r="I7" s="28"/>
       <c r="J7" s="53">
         <v>5.9131999999999997E-2</v>
@@ -1962,28 +1975,28 @@
       </c>
     </row>
     <row r="8" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="63"/>
-      <c r="B8" s="75" t="str">
+      <c r="A8" s="91"/>
+      <c r="B8" s="69" t="str">
         <f>"100"</f>
         <v>100</v>
       </c>
-      <c r="C8" s="79">
+      <c r="C8" s="73">
         <v>1</v>
       </c>
-      <c r="D8" s="80">
+      <c r="D8" s="74">
         <v>2246</v>
       </c>
-      <c r="E8" s="80">
+      <c r="E8" s="74">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="F8" s="81">
+      <c r="F8" s="75">
         <v>22.8</v>
       </c>
-      <c r="G8" s="81">
+      <c r="G8" s="75">
         <v>11.4</v>
       </c>
-      <c r="H8" s="82"/>
+      <c r="H8" s="76"/>
       <c r="I8" s="29"/>
       <c r="J8" s="53">
         <v>-0.14122599999999999</v>
@@ -1996,133 +2009,133 @@
       </c>
     </row>
     <row r="9" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="63"/>
-      <c r="B9" s="75"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="81"/>
-      <c r="H9" s="82"/>
+      <c r="A9" s="91"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="76"/>
       <c r="I9" s="29"/>
       <c r="J9" s="51"/>
       <c r="K9" s="51"/>
       <c r="L9" s="51"/>
     </row>
     <row r="10" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="63"/>
-      <c r="B10" s="75"/>
-      <c r="C10" s="83" t="s">
+      <c r="A10" s="91"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="84">
+      <c r="D10" s="78">
         <v>1.123</v>
       </c>
-      <c r="E10" s="84"/>
-      <c r="F10" s="84">
+      <c r="E10" s="78"/>
+      <c r="F10" s="78">
         <v>1.21</v>
       </c>
-      <c r="G10" s="84">
+      <c r="G10" s="78">
         <v>0.4</v>
       </c>
-      <c r="H10" s="85"/>
+      <c r="H10" s="79"/>
       <c r="I10" s="29"/>
       <c r="J10" s="51"/>
       <c r="L10" s="51"/>
     </row>
     <row r="11" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="63"/>
-      <c r="B11" s="75"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="86">
+      <c r="A11" s="91"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80">
         <f>C1*D10</f>
         <v>2246</v>
       </c>
-      <c r="E11" s="86" t="s">
+      <c r="E11" s="80" t="s">
         <v>76</v>
       </c>
-      <c r="F11" s="87"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="88"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="82"/>
       <c r="I11" s="29"/>
       <c r="J11" s="14"/>
       <c r="L11" s="14"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="72"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="74"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="68"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="72">
+      <c r="B13" s="66">
         <v>0</v>
       </c>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="74"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="68"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="72">
+      <c r="B14" s="66">
         <v>1</v>
       </c>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="74"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="68"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="72">
+      <c r="B15" s="66">
         <v>2</v>
       </c>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="74"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="68"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="72">
+      <c r="B16" s="66">
         <v>3</v>
       </c>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="74"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="68"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="72">
+      <c r="B17" s="66">
         <v>4</v>
       </c>
-      <c r="C17" s="73"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="74"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="68"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="89"/>
-      <c r="C18" s="90"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="91"/>
+      <c r="B18" s="83"/>
+      <c r="C18" s="84"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="84"/>
+      <c r="H18" s="85"/>
     </row>
     <row r="19" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="63" t="s">
+      <c r="A19" s="91" t="s">
         <v>97</v>
       </c>
       <c r="B19" s="46"/>
@@ -2141,7 +2154,7 @@
       <c r="I19" s="30"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="63"/>
+      <c r="A20" s="91"/>
       <c r="B20" s="46"/>
       <c r="C20" s="15">
         <v>20</v>
@@ -2162,7 +2175,7 @@
       <c r="H20" s="18"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="63"/>
+      <c r="A21" s="91"/>
       <c r="B21" s="46"/>
       <c r="C21" s="15">
         <v>25</v>
@@ -2189,7 +2202,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="63"/>
+      <c r="A22" s="91"/>
       <c r="B22" s="46"/>
       <c r="C22" s="15">
         <v>30</v>
@@ -2216,7 +2229,7 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="63"/>
+      <c r="A23" s="91"/>
       <c r="B23" s="46"/>
       <c r="C23" s="15">
         <v>35</v>
@@ -2243,7 +2256,7 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="63"/>
+      <c r="A24" s="91"/>
       <c r="B24" s="46"/>
       <c r="C24" s="15">
         <v>40</v>
@@ -2270,11 +2283,11 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="63"/>
+      <c r="A25" s="91"/>
       <c r="B25" s="46"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="63"/>
+      <c r="A26" s="91"/>
       <c r="B26" s="46"/>
       <c r="C26" s="38" t="s">
         <v>35</v>
@@ -2290,7 +2303,7 @@
       <c r="H26" s="16"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="63"/>
+      <c r="A27" s="91"/>
       <c r="B27" s="46"/>
       <c r="C27" s="16"/>
       <c r="D27" s="16">
@@ -2331,7 +2344,7 @@
       <c r="L29" s="5"/>
     </row>
     <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="64" t="s">
+      <c r="A30" s="87" t="s">
         <v>104</v>
       </c>
       <c r="B30" s="49">
@@ -2356,7 +2369,7 @@
       <c r="L30" s="51"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="64"/>
+      <c r="A31" s="87"/>
       <c r="B31" s="49">
         <v>1</v>
       </c>
@@ -2380,7 +2393,7 @@
       <c r="L31" s="51"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="64"/>
+      <c r="A32" s="87"/>
       <c r="B32" s="49">
         <v>2</v>
       </c>
@@ -2405,7 +2418,7 @@
       <c r="L32" s="51"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="64"/>
+      <c r="A33" s="87"/>
       <c r="B33" s="49">
         <v>3</v>
       </c>
@@ -2428,7 +2441,7 @@
       <c r="L33" s="51"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="64"/>
+      <c r="A34" s="87"/>
       <c r="B34" s="49">
         <v>4</v>
       </c>
@@ -2459,7 +2472,7 @@
       <c r="L35" s="5"/>
     </row>
     <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="64" t="s">
+      <c r="A36" s="87" t="s">
         <v>98</v>
       </c>
       <c r="B36" s="49">
@@ -2492,7 +2505,7 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="64"/>
+      <c r="A37" s="87"/>
       <c r="B37" s="49">
         <v>1</v>
       </c>
@@ -2523,7 +2536,7 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="64"/>
+      <c r="A38" s="87"/>
       <c r="B38" s="49">
         <v>2</v>
       </c>
@@ -2554,7 +2567,7 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="64"/>
+      <c r="A39" s="87"/>
       <c r="B39" s="49">
         <v>3</v>
       </c>
@@ -2585,7 +2598,7 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="64"/>
+      <c r="A40" s="87"/>
       <c r="B40" s="49">
         <v>4</v>
       </c>
@@ -2620,7 +2633,7 @@
       <c r="B41" s="37"/>
     </row>
     <row r="42" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="63" t="s">
+      <c r="A42" s="91" t="s">
         <v>97</v>
       </c>
       <c r="B42" s="46"/>
@@ -2645,7 +2658,7 @@
       <c r="I42" s="30"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="63"/>
+      <c r="A43" s="91"/>
       <c r="B43" s="46"/>
       <c r="C43" s="15">
         <v>9</v>
@@ -2672,7 +2685,7 @@
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="63"/>
+      <c r="A44" s="91"/>
       <c r="B44" s="46"/>
       <c r="C44" s="15">
         <v>14</v>
@@ -2699,7 +2712,7 @@
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="63"/>
+      <c r="A45" s="91"/>
       <c r="B45" s="46"/>
       <c r="C45" s="15">
         <v>19</v>
@@ -2726,7 +2739,7 @@
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="63"/>
+      <c r="A46" s="91"/>
       <c r="B46" s="46"/>
       <c r="C46" s="15">
         <v>24</v>
@@ -2753,7 +2766,7 @@
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="63"/>
+      <c r="A47" s="91"/>
       <c r="B47" s="46"/>
       <c r="C47" s="15">
         <v>29</v>
@@ -2780,11 +2793,11 @@
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="63"/>
+      <c r="A48" s="91"/>
       <c r="B48" s="46"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="63"/>
+      <c r="A49" s="91"/>
       <c r="B49" s="46"/>
       <c r="C49" s="38" t="s">
         <v>35</v>
@@ -2804,7 +2817,7 @@
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="63"/>
+      <c r="A50" s="91"/>
       <c r="B50" s="46"/>
       <c r="C50" s="16"/>
       <c r="D50" s="16">
@@ -2845,7 +2858,7 @@
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="64" t="s">
+      <c r="A53" s="87" t="s">
         <v>104</v>
       </c>
       <c r="B53" s="49">
@@ -2877,7 +2890,7 @@
       <c r="L53" s="51"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="65"/>
+      <c r="A54" s="88"/>
       <c r="B54" s="50">
         <v>6</v>
       </c>
@@ -2905,7 +2918,7 @@
       <c r="L54" s="51"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="65"/>
+      <c r="A55" s="88"/>
       <c r="B55" s="50">
         <v>7</v>
       </c>
@@ -2935,7 +2948,7 @@
       <c r="L55" s="51"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="65"/>
+      <c r="A56" s="88"/>
       <c r="B56" s="50">
         <v>8</v>
       </c>
@@ -2965,7 +2978,7 @@
       <c r="L56" s="51"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="65"/>
+      <c r="A57" s="88"/>
       <c r="B57" s="50">
         <v>9</v>
       </c>
@@ -3000,7 +3013,7 @@
       <c r="L58" s="5"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="64" t="s">
+      <c r="A59" s="87" t="s">
         <v>98</v>
       </c>
       <c r="B59" s="49">
@@ -3038,7 +3051,7 @@
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="65"/>
+      <c r="A60" s="88"/>
       <c r="B60" s="50">
         <v>6</v>
       </c>
@@ -3074,7 +3087,7 @@
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="65"/>
+      <c r="A61" s="88"/>
       <c r="B61" s="50">
         <v>7</v>
       </c>
@@ -3110,7 +3123,7 @@
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="65"/>
+      <c r="A62" s="88"/>
       <c r="B62" s="50">
         <v>8</v>
       </c>
@@ -3146,7 +3159,7 @@
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="65"/>
+      <c r="A63" s="88"/>
       <c r="B63" s="50">
         <v>9</v>
       </c>
@@ -3182,7 +3195,7 @@
       </c>
     </row>
     <row r="65" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="63" t="s">
+      <c r="A65" s="91" t="s">
         <v>97</v>
       </c>
       <c r="B65" s="46"/>
@@ -3202,7 +3215,7 @@
       <c r="I65" s="30"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="63"/>
+      <c r="A66" s="91"/>
       <c r="B66" s="46"/>
       <c r="C66" s="15">
         <v>9</v>
@@ -3223,7 +3236,7 @@
       <c r="H66" s="18"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="63"/>
+      <c r="A67" s="91"/>
       <c r="B67" s="46"/>
       <c r="C67" s="15">
         <v>14</v>
@@ -3244,7 +3257,7 @@
       <c r="H67" s="18"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="63"/>
+      <c r="A68" s="91"/>
       <c r="B68" s="46"/>
       <c r="C68" s="15">
         <v>19</v>
@@ -3265,7 +3278,7 @@
       <c r="H68" s="18"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="63"/>
+      <c r="A69" s="91"/>
       <c r="B69" s="46"/>
       <c r="C69" s="15">
         <v>24</v>
@@ -3286,7 +3299,7 @@
       <c r="H69" s="18"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="63"/>
+      <c r="A70" s="91"/>
       <c r="B70" s="46"/>
       <c r="C70" s="15">
         <v>29</v>
@@ -3307,11 +3320,11 @@
       <c r="H70" s="18"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="63"/>
+      <c r="A71" s="91"/>
       <c r="B71" s="46"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="63"/>
+      <c r="A72" s="91"/>
       <c r="B72" s="46"/>
       <c r="C72" s="38" t="s">
         <v>35</v>
@@ -3327,7 +3340,7 @@
       <c r="H72" s="16"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="63"/>
+      <c r="A73" s="91"/>
       <c r="B73" s="46"/>
       <c r="C73" s="16"/>
       <c r="D73" s="16">
@@ -3376,7 +3389,7 @@
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="67" t="s">
+      <c r="A76" s="89" t="s">
         <v>104</v>
       </c>
       <c r="B76" s="47">
@@ -3400,7 +3413,7 @@
       <c r="L76" s="51"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="68"/>
+      <c r="A77" s="90"/>
       <c r="B77" s="48">
         <v>11</v>
       </c>
@@ -3421,7 +3434,7 @@
       <c r="L77" s="51"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="68"/>
+      <c r="A78" s="90"/>
       <c r="B78" s="48">
         <v>12</v>
       </c>
@@ -3443,7 +3456,7 @@
       <c r="L78" s="51"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="68"/>
+      <c r="A79" s="90"/>
       <c r="B79" s="48">
         <v>13</v>
       </c>
@@ -3465,7 +3478,7 @@
       <c r="L79" s="51"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" s="68"/>
+      <c r="A80" s="90"/>
       <c r="B80" s="48">
         <v>14</v>
       </c>
@@ -3499,7 +3512,7 @@
       <c r="L81" s="5"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="67" t="s">
+      <c r="A82" s="89" t="s">
         <v>98</v>
       </c>
       <c r="B82" s="47">
@@ -3532,7 +3545,7 @@
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" s="68"/>
+      <c r="A83" s="90"/>
       <c r="B83" s="48">
         <v>11</v>
       </c>
@@ -3563,7 +3576,7 @@
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="68"/>
+      <c r="A84" s="90"/>
       <c r="B84" s="48">
         <v>12</v>
       </c>
@@ -3594,7 +3607,7 @@
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" s="68"/>
+      <c r="A85" s="90"/>
       <c r="B85" s="48">
         <v>13</v>
       </c>
@@ -3625,7 +3638,7 @@
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="68"/>
+      <c r="A86" s="90"/>
       <c r="B86" s="48">
         <v>14</v>
       </c>
@@ -3656,7 +3669,7 @@
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" s="63" t="s">
+      <c r="A88" s="91" t="s">
         <v>97</v>
       </c>
       <c r="B88" s="46"/>
@@ -3681,7 +3694,7 @@
       <c r="L88" s="5"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="63"/>
+      <c r="A89" s="91"/>
       <c r="B89" s="46"/>
       <c r="C89" s="24">
         <v>0.25</v>
@@ -3705,7 +3718,7 @@
       <c r="H89" s="33"/>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" s="63"/>
+      <c r="A90" s="91"/>
       <c r="B90" s="46"/>
       <c r="C90" s="24">
         <v>3.75</v>
@@ -3729,7 +3742,7 @@
       <c r="H90" s="33"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="63"/>
+      <c r="A91" s="91"/>
       <c r="B91" s="46"/>
       <c r="C91" s="24">
         <v>7.5</v>
@@ -3753,7 +3766,7 @@
       <c r="H91" s="33"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="63"/>
+      <c r="A92" s="91"/>
       <c r="B92" s="46"/>
       <c r="C92" s="24">
         <v>11.25</v>
@@ -3777,7 +3790,7 @@
       <c r="H92" s="33"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="63"/>
+      <c r="A93" s="91"/>
       <c r="B93" s="46"/>
       <c r="C93" s="24">
         <v>15</v>
@@ -3801,7 +3814,7 @@
       <c r="H93" s="33"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="63"/>
+      <c r="A94" s="91"/>
       <c r="B94" s="46"/>
       <c r="C94" s="21"/>
       <c r="D94" s="21"/>
@@ -3811,7 +3824,7 @@
       <c r="H94" s="33"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="63"/>
+      <c r="A95" s="91"/>
       <c r="B95" s="46"/>
       <c r="C95" s="40" t="s">
         <v>35</v>
@@ -3829,7 +3842,7 @@
       <c r="H95" s="42"/>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" s="63"/>
+      <c r="A96" s="91"/>
       <c r="B96" s="46"/>
       <c r="C96" s="19"/>
       <c r="D96" s="19">
@@ -3844,7 +3857,7 @@
       <c r="H96" s="19"/>
     </row>
     <row r="98" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="63" t="s">
+      <c r="A98" s="91" t="s">
         <v>97</v>
       </c>
       <c r="B98" s="46"/>
@@ -3865,7 +3878,7 @@
       <c r="I98" s="30"/>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A99" s="63"/>
+      <c r="A99" s="91"/>
       <c r="B99" s="46"/>
       <c r="C99" s="15">
         <v>0.25</v>
@@ -3886,7 +3899,7 @@
       <c r="H99" s="55"/>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A100" s="63"/>
+      <c r="A100" s="91"/>
       <c r="B100" s="46"/>
       <c r="C100" s="24">
         <v>3.75</v>
@@ -3907,7 +3920,7 @@
       <c r="H100" s="55"/>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" s="63"/>
+      <c r="A101" s="91"/>
       <c r="B101" s="46"/>
       <c r="C101" s="15">
         <v>7.5</v>
@@ -3928,7 +3941,7 @@
       <c r="H101" s="55"/>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A102" s="63"/>
+      <c r="A102" s="91"/>
       <c r="B102" s="46"/>
       <c r="C102" s="24">
         <v>11.25</v>
@@ -3949,7 +3962,7 @@
       <c r="H102" s="55"/>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A103" s="63"/>
+      <c r="A103" s="91"/>
       <c r="B103" s="46"/>
       <c r="C103" s="15">
         <v>15</v>
@@ -3970,13 +3983,13 @@
       <c r="H103" s="55"/>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A104" s="63"/>
+      <c r="A104" s="91"/>
       <c r="B104" s="46"/>
       <c r="G104" s="56"/>
       <c r="H104" s="56"/>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A105" s="63"/>
+      <c r="A105" s="91"/>
       <c r="B105" s="46"/>
       <c r="C105" s="38" t="s">
         <v>35</v>
@@ -3992,7 +4005,7 @@
       <c r="H105" s="60"/>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A106" s="63"/>
+      <c r="A106" s="91"/>
       <c r="B106" s="46"/>
       <c r="C106" s="16"/>
       <c r="D106" s="16">
@@ -4026,7 +4039,7 @@
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A108" s="67" t="s">
+      <c r="A108" s="89" t="s">
         <v>102</v>
       </c>
       <c r="B108" s="47">
@@ -4053,7 +4066,7 @@
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A109" s="67"/>
+      <c r="A109" s="89"/>
       <c r="B109" s="47">
         <v>1</v>
       </c>
@@ -4083,7 +4096,7 @@
       <c r="L110" s="51"/>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A111" s="63" t="s">
+      <c r="A111" s="91" t="s">
         <v>97</v>
       </c>
       <c r="B111" s="46"/>
@@ -4104,7 +4117,7 @@
       <c r="L111" s="51"/>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A112" s="63"/>
+      <c r="A112" s="91"/>
       <c r="B112" s="46"/>
       <c r="C112" s="15">
         <v>0.25</v>
@@ -4125,7 +4138,7 @@
       <c r="H112" s="55"/>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A113" s="63"/>
+      <c r="A113" s="91"/>
       <c r="B113" s="46"/>
       <c r="C113" s="24">
         <v>3.75</v>
@@ -4146,7 +4159,7 @@
       <c r="H113" s="55"/>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A114" s="63"/>
+      <c r="A114" s="91"/>
       <c r="B114" s="46"/>
       <c r="C114" s="15">
         <v>7.5</v>
@@ -4167,7 +4180,7 @@
       <c r="H114" s="55"/>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A115" s="63"/>
+      <c r="A115" s="91"/>
       <c r="B115" s="46"/>
       <c r="C115" s="24">
         <v>11.25</v>
@@ -4188,7 +4201,7 @@
       <c r="H115" s="55"/>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A116" s="63"/>
+      <c r="A116" s="91"/>
       <c r="B116" s="46"/>
       <c r="C116" s="15">
         <v>15</v>
@@ -4209,13 +4222,13 @@
       <c r="H116" s="55"/>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A117" s="63"/>
+      <c r="A117" s="91"/>
       <c r="B117" s="46"/>
       <c r="G117" s="56"/>
       <c r="H117" s="56"/>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A118" s="63"/>
+      <c r="A118" s="91"/>
       <c r="B118" s="46"/>
       <c r="C118" s="38" t="s">
         <v>35</v>
@@ -4231,7 +4244,7 @@
       <c r="H118" s="60"/>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A119" s="63"/>
+      <c r="A119" s="91"/>
       <c r="B119" s="46"/>
       <c r="C119" s="16"/>
       <c r="D119" s="16">
@@ -4259,7 +4272,7 @@
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A121" s="64" t="s">
+      <c r="A121" s="87" t="s">
         <v>102</v>
       </c>
       <c r="B121" s="49">
@@ -4286,7 +4299,7 @@
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A122" s="64"/>
+      <c r="A122" s="87"/>
       <c r="B122" s="49">
         <v>4</v>
       </c>
@@ -4316,7 +4329,7 @@
       <c r="L123" s="51"/>
     </row>
     <row r="124" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="63" t="s">
+      <c r="A124" s="91" t="s">
         <v>97</v>
       </c>
       <c r="B124" s="46"/>
@@ -4336,7 +4349,7 @@
       <c r="L124" s="51"/>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A125" s="63"/>
+      <c r="A125" s="91"/>
       <c r="B125" s="46"/>
       <c r="C125" s="15">
         <v>0.25</v>
@@ -4357,7 +4370,7 @@
       <c r="H125" s="18"/>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A126" s="63"/>
+      <c r="A126" s="91"/>
       <c r="B126" s="46"/>
       <c r="C126" s="15">
         <v>3.75</v>
@@ -4378,7 +4391,7 @@
       <c r="H126" s="18"/>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A127" s="63"/>
+      <c r="A127" s="91"/>
       <c r="B127" s="46"/>
       <c r="C127" s="15">
         <v>7.5</v>
@@ -4399,7 +4412,7 @@
       <c r="H127" s="18"/>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A128" s="63"/>
+      <c r="A128" s="91"/>
       <c r="B128" s="46"/>
       <c r="C128" s="15">
         <v>11.25</v>
@@ -4420,7 +4433,7 @@
       <c r="H128" s="18"/>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A129" s="63"/>
+      <c r="A129" s="91"/>
       <c r="B129" s="46"/>
       <c r="C129" s="15">
         <v>15</v>
@@ -4441,11 +4454,11 @@
       <c r="H129" s="18"/>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A130" s="63"/>
+      <c r="A130" s="91"/>
       <c r="B130" s="46"/>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A131" s="63"/>
+      <c r="A131" s="91"/>
       <c r="B131" s="46"/>
       <c r="C131" s="38" t="s">
         <v>35</v>
@@ -4461,7 +4474,7 @@
       <c r="H131" s="16"/>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A132" s="63"/>
+      <c r="A132" s="91"/>
       <c r="B132" s="46"/>
       <c r="C132" s="16"/>
       <c r="D132" s="16">
@@ -4487,7 +4500,7 @@
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A134" s="66" t="s">
+      <c r="A134" s="86" t="s">
         <v>102</v>
       </c>
       <c r="B134" s="47">
@@ -4515,7 +4528,7 @@
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A135" s="66"/>
+      <c r="A135" s="86"/>
       <c r="B135" s="47">
         <v>7</v>
       </c>
@@ -4541,7 +4554,7 @@
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A136" s="66"/>
+      <c r="A136" s="86"/>
       <c r="B136" s="47">
         <v>8</v>
       </c>
@@ -4567,7 +4580,7 @@
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A137" s="66"/>
+      <c r="A137" s="86"/>
       <c r="B137" s="47">
         <v>9</v>
       </c>
@@ -4593,7 +4606,7 @@
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A138" s="66"/>
+      <c r="A138" s="86"/>
       <c r="B138" s="47">
         <v>10</v>
       </c>
@@ -4620,6 +4633,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A3:A11"/>
+    <mergeCell ref="A19:A27"/>
+    <mergeCell ref="A42:A50"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="A59:A63"/>
     <mergeCell ref="A134:A138"/>
     <mergeCell ref="A30:A34"/>
     <mergeCell ref="A53:A57"/>
@@ -4632,11 +4650,6 @@
     <mergeCell ref="A82:A86"/>
     <mergeCell ref="A108:A109"/>
     <mergeCell ref="A121:A122"/>
-    <mergeCell ref="A3:A11"/>
-    <mergeCell ref="A19:A27"/>
-    <mergeCell ref="A42:A50"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="A59:A63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
